--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H2">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I2">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J2">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>136.6884486666667</v>
+        <v>255.0443116666667</v>
       </c>
       <c r="N2">
-        <v>410.065346</v>
+        <v>765.132935</v>
       </c>
       <c r="O2">
-        <v>0.7423691870207686</v>
+        <v>0.863617428561108</v>
       </c>
       <c r="P2">
-        <v>0.7423691870207685</v>
+        <v>0.8636174285611079</v>
       </c>
       <c r="Q2">
-        <v>16710.57496517273</v>
+        <v>5789.674459123344</v>
       </c>
       <c r="R2">
-        <v>150395.1746865546</v>
+        <v>52107.07013211009</v>
       </c>
       <c r="S2">
-        <v>0.1476304588174291</v>
+        <v>0.07440296351859586</v>
       </c>
       <c r="T2">
-        <v>0.147630458817429</v>
+        <v>0.07440296351859585</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H3">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I3">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J3">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8952453333333333</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N3">
         <v>2.685736</v>
       </c>
       <c r="O3">
-        <v>0.004862170554817893</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="P3">
-        <v>0.004862170554817892</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="Q3">
-        <v>109.44644116468</v>
+        <v>20.322660823832</v>
       </c>
       <c r="R3">
-        <v>985.0179704821199</v>
+        <v>182.903947414488</v>
       </c>
       <c r="S3">
-        <v>0.0009669103761391404</v>
+        <v>0.0002611660124506071</v>
       </c>
       <c r="T3">
-        <v>0.0009669103761391401</v>
+        <v>0.0002611660124506071</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H4">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I4">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J4">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.903320333333333</v>
+        <v>7.050555333333333</v>
       </c>
       <c r="N4">
-        <v>14.709961</v>
+        <v>21.151666</v>
       </c>
       <c r="O4">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="P4">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="Q4">
-        <v>599.445694260805</v>
+        <v>160.052266483742</v>
       </c>
       <c r="R4">
-        <v>5395.011248347245</v>
+        <v>1440.470398353678</v>
       </c>
       <c r="S4">
-        <v>0.005295834707321228</v>
+        <v>0.00205682772465614</v>
       </c>
       <c r="T4">
-        <v>0.005295834707321226</v>
+        <v>0.00205682772465614</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H5">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I5">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J5">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.63761133333333</v>
+        <v>32.33082866666666</v>
       </c>
       <c r="N5">
-        <v>124.912834</v>
+        <v>96.99248599999999</v>
       </c>
       <c r="O5">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="P5">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="Q5">
-        <v>5090.32352289817</v>
+        <v>733.9311814110818</v>
       </c>
       <c r="R5">
-        <v>45812.91170608353</v>
+        <v>6605.380632699736</v>
       </c>
       <c r="S5">
-        <v>0.04497073253199346</v>
+        <v>0.009431731490470892</v>
       </c>
       <c r="T5">
-        <v>0.04497073253199346</v>
+        <v>0.009431731490470892</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>397.634285</v>
       </c>
       <c r="I6">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J6">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>136.6884486666667</v>
+        <v>255.0443116666667</v>
       </c>
       <c r="N6">
-        <v>410.065346</v>
+        <v>765.132935</v>
       </c>
       <c r="O6">
-        <v>0.7423691870207686</v>
+        <v>0.863617428561108</v>
       </c>
       <c r="P6">
-        <v>0.7423691870207685</v>
+        <v>0.8636174285611079</v>
       </c>
       <c r="Q6">
-        <v>18117.33785110973</v>
+        <v>33804.78750429738</v>
       </c>
       <c r="R6">
-        <v>163056.0406599876</v>
+        <v>304243.0875386765</v>
       </c>
       <c r="S6">
-        <v>0.1600585799760994</v>
+        <v>0.434424489527683</v>
       </c>
       <c r="T6">
-        <v>0.1600585799760994</v>
+        <v>0.4344244895276831</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>397.634285</v>
       </c>
       <c r="I7">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J7">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8952453333333333</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N7">
         <v>2.685736</v>
       </c>
       <c r="O7">
-        <v>0.004862170554817893</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="P7">
-        <v>0.004862170554817892</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="Q7">
         <v>118.6600793398622</v>
@@ -883,10 +883,10 @@
         <v>1067.94071405876</v>
       </c>
       <c r="S7">
-        <v>0.001048308750163661</v>
+        <v>0.001524897749704268</v>
       </c>
       <c r="T7">
-        <v>0.001048308750163661</v>
+        <v>0.001524897749704268</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>397.634285</v>
       </c>
       <c r="I8">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J8">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.903320333333333</v>
+        <v>7.050555333333333</v>
       </c>
       <c r="N8">
-        <v>14.709961</v>
+        <v>21.151666</v>
       </c>
       <c r="O8">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="P8">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="Q8">
-        <v>649.9094249569872</v>
+        <v>934.514176274312</v>
       </c>
       <c r="R8">
-        <v>5849.184824612885</v>
+        <v>8410.627586468809</v>
       </c>
       <c r="S8">
-        <v>0.005741659206588512</v>
+        <v>0.0120094186047684</v>
       </c>
       <c r="T8">
-        <v>0.005741659206588511</v>
+        <v>0.0120094186047684</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>397.634285</v>
       </c>
       <c r="I9">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J9">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>41.63761133333333</v>
+        <v>32.33082866666666</v>
       </c>
       <c r="N9">
-        <v>124.912834</v>
+        <v>96.99248599999999</v>
       </c>
       <c r="O9">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="P9">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="Q9">
-        <v>5518.847270545965</v>
+        <v>4285.281980109167</v>
       </c>
       <c r="R9">
-        <v>49669.62543491369</v>
+        <v>38567.5378209825</v>
       </c>
       <c r="S9">
-        <v>0.04875654825714102</v>
+        <v>0.05507005291645293</v>
       </c>
       <c r="T9">
-        <v>0.04875654825714102</v>
+        <v>0.05507005291645294</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H10">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I10">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J10">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>136.6884486666667</v>
+        <v>255.0443116666667</v>
       </c>
       <c r="N10">
-        <v>410.065346</v>
+        <v>765.132935</v>
       </c>
       <c r="O10">
-        <v>0.7423691870207686</v>
+        <v>0.863617428561108</v>
       </c>
       <c r="P10">
-        <v>0.7423691870207685</v>
+        <v>0.8636174285611079</v>
       </c>
       <c r="Q10">
-        <v>5449.753868238809</v>
+        <v>10697.92147311632</v>
       </c>
       <c r="R10">
-        <v>49047.78481414928</v>
+        <v>96281.29325804685</v>
       </c>
       <c r="S10">
-        <v>0.04814613893818451</v>
+        <v>0.1374787247035645</v>
       </c>
       <c r="T10">
-        <v>0.04814613893818451</v>
+        <v>0.1374787247035644</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H11">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I11">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J11">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8952453333333333</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N11">
         <v>2.685736</v>
       </c>
       <c r="O11">
-        <v>0.004862170554817893</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="P11">
-        <v>0.004862170554817892</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="Q11">
-        <v>35.69333594716444</v>
+        <v>37.55137376947645</v>
       </c>
       <c r="R11">
-        <v>321.24002352448</v>
+        <v>337.962363925288</v>
       </c>
       <c r="S11">
-        <v>0.0003153346652396322</v>
+        <v>0.0004825717771127606</v>
       </c>
       <c r="T11">
-        <v>0.0003153346652396321</v>
+        <v>0.0004825717771127606</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H12">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I12">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J12">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.903320333333333</v>
+        <v>7.050555333333333</v>
       </c>
       <c r="N12">
-        <v>14.709961</v>
+        <v>21.151666</v>
       </c>
       <c r="O12">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="P12">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="Q12">
-        <v>195.4948586691644</v>
+        <v>295.7379711978864</v>
       </c>
       <c r="R12">
-        <v>1759.45372802248</v>
+        <v>2661.641740780978</v>
       </c>
       <c r="S12">
-        <v>0.001727109674079301</v>
+        <v>0.003800521365657517</v>
       </c>
       <c r="T12">
-        <v>0.001727109674079301</v>
+        <v>0.003800521365657516</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H13">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I13">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J13">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>41.63761133333333</v>
+        <v>32.33082866666666</v>
       </c>
       <c r="N13">
-        <v>124.912834</v>
+        <v>96.99248599999999</v>
       </c>
       <c r="O13">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="P13">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="Q13">
-        <v>1660.087122514791</v>
+        <v>1356.127741005337</v>
       </c>
       <c r="R13">
-        <v>14940.78410263312</v>
+        <v>12205.14966904803</v>
       </c>
       <c r="S13">
-        <v>0.01466612753208943</v>
+        <v>0.0174275641148663</v>
       </c>
       <c r="T13">
-        <v>0.01466612753208943</v>
+        <v>0.01742756411486629</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H14">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I14">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J14">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>136.6884486666667</v>
+        <v>255.0443116666667</v>
       </c>
       <c r="N14">
-        <v>410.065346</v>
+        <v>765.132935</v>
       </c>
       <c r="O14">
-        <v>0.7423691870207686</v>
+        <v>0.863617428561108</v>
       </c>
       <c r="P14">
-        <v>0.7423691870207685</v>
+        <v>0.8636174285611079</v>
       </c>
       <c r="Q14">
-        <v>43752.52634553873</v>
+        <v>16910.09791817859</v>
       </c>
       <c r="R14">
-        <v>393772.7371098486</v>
+        <v>152190.8812636073</v>
       </c>
       <c r="S14">
-        <v>0.3865340092890556</v>
+        <v>0.2173112508112646</v>
       </c>
       <c r="T14">
-        <v>0.3865340092890556</v>
+        <v>0.2173112508112646</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H15">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I15">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J15">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.8952453333333333</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N15">
         <v>2.685736</v>
       </c>
       <c r="O15">
-        <v>0.004862170554817893</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="P15">
-        <v>0.004862170554817892</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="Q15">
-        <v>286.5585601012035</v>
+        <v>59.35708249492267</v>
       </c>
       <c r="R15">
-        <v>2579.027040910832</v>
+        <v>534.213742454304</v>
       </c>
       <c r="S15">
-        <v>0.002531616763275459</v>
+        <v>0.0007627964015283731</v>
       </c>
       <c r="T15">
-        <v>0.002531616763275458</v>
+        <v>0.0007627964015283731</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H16">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I16">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J16">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.903320333333333</v>
+        <v>7.050555333333333</v>
       </c>
       <c r="N16">
-        <v>14.709961</v>
+        <v>21.151666</v>
       </c>
       <c r="O16">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="P16">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="Q16">
-        <v>1569.500964839753</v>
+        <v>467.4700654372026</v>
       </c>
       <c r="R16">
-        <v>14125.50868355778</v>
+        <v>4207.230588934824</v>
       </c>
       <c r="S16">
-        <v>0.01386583932848509</v>
+        <v>0.006007446268408375</v>
       </c>
       <c r="T16">
-        <v>0.01386583932848509</v>
+        <v>0.006007446268408374</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H17">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I17">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J17">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>41.63761133333333</v>
+        <v>32.33082866666666</v>
       </c>
       <c r="N17">
-        <v>124.912834</v>
+        <v>96.99248599999999</v>
       </c>
       <c r="O17">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="P17">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="Q17">
-        <v>13327.7588896305</v>
+        <v>2143.617612784589</v>
       </c>
       <c r="R17">
-        <v>119949.8300066745</v>
+        <v>19292.5585150613</v>
       </c>
       <c r="S17">
-        <v>0.1177447911867155</v>
+        <v>0.02754757701281552</v>
       </c>
       <c r="T17">
-        <v>0.1177447911867155</v>
+        <v>0.02754757701281551</v>
       </c>
     </row>
   </sheetData>
